--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2045241.108150592</v>
+        <v>-2047846.455183825</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12534061.51892678</v>
+        <v>12545852.19674081</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15411528.65071378</v>
+        <v>15415698.7094467</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,19 +665,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.0904450475561</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>232.3605067806967</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>48.08148421406815</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>113.0324549812898</v>
       </c>
       <c r="T2" t="n">
-        <v>81.15208468698781</v>
+        <v>204.6565392873045</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0186029205788</v>
+        <v>251.0086695104302</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +750,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.1561775373476</v>
+        <v>135.089742000015</v>
       </c>
       <c r="H3" t="n">
-        <v>91.11034837618719</v>
+        <v>90.46872094984359</v>
       </c>
       <c r="I3" t="n">
-        <v>14.08691327674306</v>
+        <v>11.79954938173974</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>131.0542969129161</v>
+        <v>129.8202859453569</v>
       </c>
       <c r="T3" t="n">
-        <v>191.3482150274173</v>
+        <v>191.0804331905373</v>
       </c>
       <c r="U3" t="n">
-        <v>225.7974781582207</v>
+        <v>225.7931073991856</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>27.78166188088152</v>
       </c>
       <c r="H4" t="n">
-        <v>145.9230939674644</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>11.0013465414935</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792917</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981866</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.1102960603998</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2190043347733</v>
+        <v>286.2159662989849</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>271.775411412472</v>
+        <v>252.7493895559471</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1060,16 +1060,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>23.35772589727825</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>73.34931970216546</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>297.4419710579502</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>85.26459287122385</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.40943379163142</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>36.8883178564542</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>28.75188085811838</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>64.36993339924464</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>21.85677025083593</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>254.3711517780282</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>41.74133133758772</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>194.9085394018863</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812027</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>80.3398974490899</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,22 +2476,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>41.74133133758728</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179546</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>142.9621736065881</v>
+        <v>28.75188085812072</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808195</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2953,10 +2953,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261729</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545299</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1172.386123857189</v>
+        <v>1488.143485123595</v>
       </c>
       <c r="C2" t="n">
-        <v>803.4236069167778</v>
+        <v>1119.180968183183</v>
       </c>
       <c r="D2" t="n">
-        <v>445.1579083100273</v>
+        <v>760.9152695764328</v>
       </c>
       <c r="E2" t="n">
-        <v>59.36965571178325</v>
+        <v>760.9152695764328</v>
       </c>
       <c r="F2" t="n">
-        <v>59.36965571178316</v>
+        <v>760.9152695764329</v>
       </c>
       <c r="G2" t="n">
-        <v>59.36965571178316</v>
+        <v>345.6723957910231</v>
       </c>
       <c r="H2" t="n">
-        <v>59.36965571178316</v>
+        <v>110.9648131842588</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178316</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734996</v>
+        <v>237.1001391730308</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447441</v>
+        <v>549.6723906315688</v>
       </c>
       <c r="L2" t="n">
-        <v>925.8512030185027</v>
+        <v>974.3476699529731</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552357</v>
+        <v>1478.550181808269</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877249</v>
+        <v>1995.525025811713</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384226</v>
+        <v>2470.354450076069</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215711</v>
+        <v>2841.109377259757</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.679802719473</v>
+        <v>3071.358140510237</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589158</v>
+        <v>3119.882870623637</v>
       </c>
       <c r="S2" t="n">
-        <v>2968.482785589158</v>
+        <v>3005.708673672839</v>
       </c>
       <c r="T2" t="n">
-        <v>2886.510982875029</v>
+        <v>2798.984896614956</v>
       </c>
       <c r="U2" t="n">
-        <v>2632.956838510808</v>
+        <v>2545.44078599836</v>
       </c>
       <c r="V2" t="n">
-        <v>2301.893951167237</v>
+        <v>2214.377898654789</v>
       </c>
       <c r="W2" t="n">
-        <v>1949.125295897123</v>
+        <v>1861.609243384675</v>
       </c>
       <c r="X2" t="n">
-        <v>1949.125295897123</v>
+        <v>1488.143485123595</v>
       </c>
       <c r="Y2" t="n">
-        <v>1558.985963921311</v>
+        <v>1488.143485123595</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3103593400832</v>
+        <v>1494.450283274067</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8573300589562</v>
+        <v>1319.99725399294</v>
       </c>
       <c r="D3" t="n">
-        <v>607.922920397705</v>
+        <v>1171.062844331689</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6854653922495</v>
+        <v>1011.825389326233</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1509074191345</v>
+        <v>865.2908313531183</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6295159672683</v>
+        <v>728.8365465046184</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182665</v>
+        <v>637.454000090635</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178316</v>
+        <v>625.5352633414029</v>
       </c>
       <c r="J3" t="n">
-        <v>138.3894757148952</v>
+        <v>835.5991426761877</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168903</v>
+        <v>1059.432029414121</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671328</v>
+        <v>1406.725509482315</v>
       </c>
       <c r="M3" t="n">
-        <v>1092.581588039814</v>
+        <v>1831.35748811897</v>
       </c>
       <c r="N3" t="n">
-        <v>1525.754968293606</v>
+        <v>2281.636856613999</v>
       </c>
       <c r="O3" t="n">
-        <v>1899.804188738136</v>
+        <v>2671.334714373194</v>
       </c>
       <c r="P3" t="n">
-        <v>2420.426415694429</v>
+        <v>2964.768535351694</v>
       </c>
       <c r="Q3" t="n">
-        <v>2558.264324026496</v>
+        <v>3111.002077366841</v>
       </c>
       <c r="R3" t="n">
-        <v>2558.264324026496</v>
+        <v>3119.882870623637</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.886246336681</v>
+        <v>2988.75126865863</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.605221056462</v>
+        <v>2795.74073008233</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.526960290582</v>
+        <v>2567.666884224566</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.374852058839</v>
+        <v>2332.514775992824</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.137495330638</v>
+        <v>2078.277419264622</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.285995125105</v>
+        <v>1870.425919059089</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.525696360151</v>
+        <v>1662.665620294135</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.879191579417</v>
+        <v>385.2629832209391</v>
       </c>
       <c r="C4" t="n">
-        <v>217.879191579417</v>
+        <v>385.2629832209391</v>
       </c>
       <c r="D4" t="n">
-        <v>217.879191579417</v>
+        <v>385.2629832209391</v>
       </c>
       <c r="E4" t="n">
-        <v>217.879191579417</v>
+        <v>237.3498896385461</v>
       </c>
       <c r="F4" t="n">
-        <v>217.879191579417</v>
+        <v>90.45994214063589</v>
       </c>
       <c r="G4" t="n">
-        <v>217.879191579417</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="H4" t="n">
-        <v>70.48212696581686</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178316</v>
+        <v>62.39765741247275</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945992</v>
+        <v>102.2230998038607</v>
       </c>
       <c r="K4" t="n">
-        <v>284.172641777821</v>
+        <v>297.5053722589865</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386279</v>
+        <v>602.9258822712699</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945959</v>
+        <v>935.3381100583194</v>
       </c>
       <c r="N4" t="n">
-        <v>1226.66886009458</v>
+        <v>1265.280934468307</v>
       </c>
       <c r="O4" t="n">
-        <v>1507.614327944345</v>
+        <v>1554.020240090064</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.491028290281</v>
+        <v>1777.565915077021</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852897</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="R4" t="n">
-        <v>1695.412727986302</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493184</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="T4" t="n">
-        <v>1279.080506108942</v>
+        <v>1848.902273001215</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202819</v>
+        <v>1559.795236335574</v>
       </c>
       <c r="V4" t="n">
-        <v>735.285912514395</v>
+        <v>1305.110748129687</v>
       </c>
       <c r="W4" t="n">
-        <v>445.8687424774344</v>
+        <v>1015.693578092726</v>
       </c>
       <c r="X4" t="n">
-        <v>217.879191579417</v>
+        <v>787.7040271947089</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.879191579417</v>
+        <v>566.9114480511788</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.035106955553</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.072590015141</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="D5" t="n">
-        <v>1137.806891408391</v>
+        <v>1160.585586273442</v>
       </c>
       <c r="E5" t="n">
-        <v>752.0186388101465</v>
+        <v>774.7973336751982</v>
       </c>
       <c r="F5" t="n">
-        <v>341.032734020539</v>
+        <v>363.8114288855906</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.542934265601</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X5" t="n">
-        <v>2641.774278995486</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.634947019675</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4635,13 +4635,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4650,7 +4650,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738579</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="C7" t="n">
-        <v>583.826112045951</v>
+        <v>240.2224183670224</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336153</v>
+        <v>90.10577895468668</v>
       </c>
       <c r="E7" t="n">
-        <v>433.7094726336153</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>286.8195251357049</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882606</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947628</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040977</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="X8" t="n">
-        <v>2062.330773118628</v>
+        <v>2455.360493382254</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>423.5412774992673</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="C10" t="n">
-        <v>423.5412774992673</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="D10" t="n">
-        <v>273.4246380869315</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>125.5115445045384</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>125.5115445045384</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1705.527932658019</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1416.425065783662</v>
+        <v>1800.203163718289</v>
       </c>
       <c r="V10" t="n">
-        <v>1161.740577577775</v>
+        <v>1545.518675512402</v>
       </c>
       <c r="W10" t="n">
-        <v>872.3234075408147</v>
+        <v>1256.101505475442</v>
       </c>
       <c r="X10" t="n">
-        <v>644.3338566427974</v>
+        <v>1028.111954577424</v>
       </c>
       <c r="Y10" t="n">
-        <v>423.5412774992673</v>
+        <v>807.3193754338942</v>
       </c>
     </row>
     <row r="11">
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068009</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517212</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400695</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400695</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>762.547769317909</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>614.6346757355159</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>467.7447282376056</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>300.5486289524855</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>158.8367977946836</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5218,31 +5218,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487565</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510506</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854704</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138394</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703092</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>801.6918836311987</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429801</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038337</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797738</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W16" t="n">
-        <v>1176.760808297275</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>948.7712573992574</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y16" t="n">
-        <v>727.9786782557277</v>
+        <v>983.3403484614385</v>
       </c>
     </row>
     <row r="17">
@@ -5495,31 +5495,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5534,28 +5534,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188007</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925705</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490404</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958738</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679669</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>483.8760050556311</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>483.8760050556311</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>483.8760050556311</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>316.679905770511</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>174.9680746127092</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5920,10 +5920,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5938,22 +5938,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369644</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261135</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5981,28 +5981,28 @@
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188007</v>
+        <v>580.8993044876689</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>580.8993044876689</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>430.7826650753332</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>282.8695714929401</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>135.9796239950297</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925705</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490404</v>
+        <v>762.5477693179087</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.33868158239</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1084.076049400516</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="29">
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
         <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6625,7 +6625,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
@@ -6862,7 +6862,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,16 +6880,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319329</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656823</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384025</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,31 +7114,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7154,25 +7154,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580116</v>
@@ -7327,37 +7327,37 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311328</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7397,40 +7397,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,7 +7485,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7497,10 +7497,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7549,22 +7549,22 @@
         <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384018</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.0944824954147</v>
@@ -7588,13 +7588,13 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7643,31 +7643,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.221455958011</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345473</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>242.1695121525723</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.872575263447089</v>
+        <v>14.71824250930169</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>63.9751551014775</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851259</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>115.8619247783173</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>124.0479983868877</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22711,19 +22711,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.1571872936354</v>
+        <v>138.3198280899686</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>145.4278941339734</v>
       </c>
       <c r="I4" t="n">
-        <v>89.30199974544007</v>
+        <v>98.62837588899009</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>92.33507763978307</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>191.0879511638283</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.8723165903172</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>119.863592160094</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>16.89590291932089</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>145.3900508477919</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>32.1518465585628</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405076</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.9259388694756239</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,22 +24364,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194214</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405071</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24844,7 +24844,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-4.831690603168681e-13</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1086303.380111472</v>
+        <v>1107225.995670645</v>
       </c>
     </row>
     <row r="3">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1342160.93689372</v>
+        <v>1342160.936893719</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1342160.93689372</v>
+        <v>1342160.936893719</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1342160.936893719</v>
+        <v>1342160.93689372</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1365087.967681277</v>
+        <v>1342160.93689372</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64921.82232287326</v>
+        <v>66311.33934030092</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="E2" t="n">
-        <v>80714.65996900061</v>
+        <v>80714.65996900064</v>
       </c>
       <c r="F2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900063</v>
       </c>
       <c r="G2" t="n">
         <v>80714.65996900057</v>
       </c>
       <c r="H2" t="n">
-        <v>80714.65996900063</v>
+        <v>80714.65996900058</v>
       </c>
       <c r="I2" t="n">
-        <v>80714.6599690006</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="J2" t="n">
-        <v>82104.17698642839</v>
+        <v>80714.65996900057</v>
       </c>
       <c r="K2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="L2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642837</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642834</v>
+        <v>82104.1769864284</v>
       </c>
       <c r="N2" t="n">
+        <v>82104.17698642837</v>
+      </c>
+      <c r="O2" t="n">
         <v>82104.1769864284</v>
       </c>
-      <c r="O2" t="n">
-        <v>82104.17698642836</v>
-      </c>
       <c r="P2" t="n">
-        <v>82104.17698642839</v>
+        <v>82104.1769864284</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1228620.061871474</v>
+        <v>1271067.29747634</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973055</v>
+        <v>54832.77288023833</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.1454818042</v>
+        <v>204074.6584503627</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.0103835997</v>
+        <v>32664.344105943</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.7179936318</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>19427.71799363179</v>
       </c>
     </row>
     <row r="4">
@@ -26415,43 +26415,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15667.67952732123</v>
+        <v>13682.85454400352</v>
       </c>
       <c r="C4" t="n">
+        <v>90354.06702314485</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314477</v>
       </c>
-      <c r="D4" t="n">
-        <v>90354.06702314482</v>
-      </c>
       <c r="E4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179357</v>
+      </c>
+      <c r="K4" t="n">
         <v>19157.89151488699</v>
-      </c>
-      <c r="K4" t="n">
-        <v>19157.891514887</v>
       </c>
       <c r="L4" t="n">
         <v>19157.89151488699</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488701</v>
+        <v>19157.89151488698</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488701</v>
+        <v>19157.89151488699</v>
       </c>
       <c r="O4" t="n">
         <v>19157.89151488699</v>
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100917.4173209746</v>
+        <v>103892.0286120431</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26491,7 +26491,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
         <v>103164.1158539154</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1280283.336396897</v>
+        <v>-1322725.662233239</v>
       </c>
       <c r="C6" t="n">
-        <v>-211370.3240378403</v>
+        <v>-171016.6034783481</v>
       </c>
       <c r="D6" t="n">
         <v>-116183.8305981098</v>
       </c>
       <c r="E6" t="n">
-        <v>-356987.3639140552</v>
+        <v>-357022.1018394908</v>
       </c>
       <c r="F6" t="n">
-        <v>-31574.90210670003</v>
+        <v>-31609.64003213569</v>
       </c>
       <c r="G6" t="n">
-        <v>-31574.90210670009</v>
+        <v>-31609.64003213579</v>
       </c>
       <c r="H6" t="n">
-        <v>-31574.9021067</v>
+        <v>-31609.64003213575</v>
       </c>
       <c r="I6" t="n">
-        <v>-31574.90210670003</v>
+        <v>-31609.64003213575</v>
       </c>
       <c r="J6" t="n">
-        <v>-253816.9758641782</v>
+        <v>-235684.2984824985</v>
       </c>
       <c r="K6" t="n">
-        <v>-63195.84076597371</v>
+        <v>-72882.17448831702</v>
       </c>
       <c r="L6" t="n">
-        <v>-40217.83038237404</v>
+        <v>-40217.83038237401</v>
       </c>
       <c r="M6" t="n">
         <v>-125272.8583178858</v>
@@ -26558,10 +26558,10 @@
         <v>-40217.83038237401</v>
       </c>
       <c r="O6" t="n">
-        <v>-59645.54837600583</v>
+        <v>-40217.83038237398</v>
       </c>
       <c r="P6" t="n">
-        <v>-40217.830382374</v>
+        <v>-59645.54837600578</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="L2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203974</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972895</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26957,10 +26957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129329</v>
+        <v>1047.807751310266</v>
       </c>
       <c r="C3" t="n">
-        <v>72.85564646396938</v>
+        <v>41.96894928303277</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,10 +27009,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.1206963972895</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500335</v>
+        <v>51.43073774638322</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27033,10 +27033,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972895</v>
+        <v>779.9707176559091</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500335</v>
+        <v>51.43073774638344</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -27255,10 +27255,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972895</v>
+        <v>779.9707176559093</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500335</v>
+        <v>51.43073774638322</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>139.1463142409815</v>
+        <v>158.1723360975063</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27780,16 +27780,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>123.0762367492909</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>92.67648855686276</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>30.31028741218466</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>300.9733457848297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.6163744673968</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>249.3235203491587</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28290,7 +28290,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="32">
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720917</v>
+        <v>4.212292467578954</v>
       </c>
       <c r="H2" t="n">
-        <v>41.8675085250331</v>
+        <v>43.13914023359297</v>
       </c>
       <c r="I2" t="n">
-        <v>157.6074329218933</v>
+        <v>162.3944053563378</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001373</v>
+        <v>357.5130578201795</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078538</v>
+        <v>535.8193979727968</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020666</v>
+        <v>664.7313435774663</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382373</v>
+        <v>739.6416997477735</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419357</v>
+        <v>751.6098757212823</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570169</v>
+        <v>709.723892496794</v>
       </c>
       <c r="P2" t="n">
-        <v>587.8774622517193</v>
+        <v>605.7329222034385</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.4714913934013</v>
+        <v>454.8801982082671</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259356</v>
+        <v>264.6004167165567</v>
       </c>
       <c r="S2" t="n">
-        <v>93.158144807928</v>
+        <v>95.98761460495551</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025582</v>
+        <v>18.43931027682688</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576733</v>
+        <v>0.3369833974063162</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.187339625863085</v>
+        <v>2.253775163195666</v>
       </c>
       <c r="H3" t="n">
-        <v>21.12509586030927</v>
+        <v>21.76672328665288</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467202</v>
+        <v>77.59708346967534</v>
       </c>
       <c r="J3" t="n">
-        <v>206.6556266698102</v>
+        <v>212.9323280280607</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026369</v>
+        <v>363.9352639621703</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629475</v>
+        <v>489.3558747982519</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004842</v>
+        <v>571.0552244640946</v>
       </c>
       <c r="N3" t="n">
-        <v>568.8905810265574</v>
+        <v>586.1693570278061</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429594</v>
+        <v>536.2304442012073</v>
       </c>
       <c r="P3" t="n">
-        <v>417.6859325913465</v>
+        <v>430.3722063825127</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224528</v>
+        <v>287.6924225861695</v>
       </c>
       <c r="R3" t="n">
-        <v>135.8069287005169</v>
+        <v>139.9317596938502</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092175</v>
+        <v>41.86288515848086</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404273</v>
+        <v>9.084295504284279</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1439039227541504</v>
+        <v>0.1482746817891886</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.83379206482338</v>
+        <v>1.889489387608675</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30407853997515</v>
+        <v>16.79927837346623</v>
       </c>
       <c r="I4" t="n">
-        <v>55.14712864032493</v>
+        <v>56.82209903826818</v>
       </c>
       <c r="J4" t="n">
-        <v>129.6490989830129</v>
+        <v>133.5868997039333</v>
       </c>
       <c r="K4" t="n">
-        <v>213.0532962585708</v>
+        <v>219.524312487626</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283778</v>
+        <v>280.9155404086571</v>
       </c>
       <c r="M4" t="n">
-        <v>287.4552415795412</v>
+        <v>296.1860500957853</v>
       </c>
       <c r="N4" t="n">
-        <v>280.6201984288361</v>
+        <v>289.1434078328805</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443083</v>
+        <v>267.0707363503608</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219112</v>
+        <v>228.5251528431437</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.5550791735287</v>
+        <v>158.2189704478501</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924031</v>
+        <v>84.95831373738642</v>
       </c>
       <c r="S4" t="n">
-        <v>31.95799443878562</v>
+        <v>32.9286468731439</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881712</v>
+        <v>8.073272837964337</v>
       </c>
       <c r="U4" t="n">
-        <v>0.100025021717639</v>
+        <v>0.1030630575059279</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,7 +31838,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O12" t="n">
-        <v>303.4297552732313</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>576.057346513631</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,13 +32549,13 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33427,7 +33427,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N32" t="n">
         <v>981.2715114159425</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159444</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,22 +34208,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,10 +34235,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460043</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34472,10 +34472,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.928581173451</v>
+        <v>176.4671532934933</v>
       </c>
       <c r="K2" t="n">
-        <v>299.9349591628732</v>
+        <v>315.7295469278162</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320794</v>
+        <v>428.9649286074791</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109646</v>
+        <v>509.2954665205008</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453448</v>
+        <v>522.1968121246914</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353302</v>
+        <v>479.6256810751072</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964498</v>
+        <v>374.499926448169</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189518</v>
+        <v>232.5745083338176</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180344</v>
+        <v>49.01487890242458</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314348</v>
+        <v>212.1857367018029</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282779</v>
+        <v>226.0938249878113</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830733</v>
+        <v>350.8014950183777</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784659</v>
+        <v>428.9211905420763</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432241</v>
+        <v>454.8276449444728</v>
       </c>
       <c r="O3" t="n">
-        <v>377.827495398515</v>
+        <v>393.6341997567629</v>
       </c>
       <c r="P3" t="n">
-        <v>525.8810373295886</v>
+        <v>296.3977989681824</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.2302104364313</v>
+        <v>147.710648500148</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.970498239187975</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634017</v>
+        <v>40.22771958726057</v>
       </c>
       <c r="K4" t="n">
-        <v>190.783804432688</v>
+        <v>197.2548206617432</v>
       </c>
       <c r="L4" t="n">
-        <v>300.224892788694</v>
+        <v>308.5055656689732</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413818</v>
+        <v>335.7699270576259</v>
       </c>
       <c r="N4" t="n">
-        <v>324.7523708080647</v>
+        <v>333.275580212109</v>
       </c>
       <c r="O4" t="n">
-        <v>283.783300858348</v>
+        <v>291.6558642644005</v>
       </c>
       <c r="P4" t="n">
-        <v>219.0673740868047</v>
+        <v>225.8037121080372</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.39303592183428</v>
+        <v>72.05692719615571</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O12" t="n">
-        <v>160.8335108287869</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>37.00975247789211</v>
@@ -35586,7 +35586,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998964</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>433.4611020691866</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,13 +36197,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37075,7 +37075,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193534</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,25 +37853,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930847</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.546547198085</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243176</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
